--- a/biology/Zoologie/Catuna/Catuna.xlsx
+++ b/biology/Zoologie/Catuna/Catuna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catuna est un genre de lépidoptères (papillons) afrotropicaux de la famille des Nymphalidae et de la sous-famille des Limenitidinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1819 par l'entomologiste allemand Jakob Hübner sous le nom de Jaera. Ce nom étant préoccupé par Jaera Leach, 1815, les entomologistes autrichiens C. et R. Felder ont introduit en 1867 un nomen novum : Euomma. Ce nom étant lui-même préoccupé par Euomma Boheman, 1858, l'entomologiste anglais William Kirby a à son tour créé un nom de remplacement en 1871 : Catuna[1],[2]. Certains auteurs considèrent cependant que le nom valide est Evena Westwood, [1850][3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1819 par l'entomologiste allemand Jakob Hübner sous le nom de Jaera. Ce nom étant préoccupé par Jaera Leach, 1815, les entomologistes autrichiens C. et R. Felder ont introduit en 1867 un nomen novum : Euomma. Ce nom étant lui-même préoccupé par Euomma Boheman, 1858, l'entomologiste anglais William Kirby a à son tour créé un nom de remplacement en 1871 : Catuna,. Certains auteurs considèrent cependant que le nom valide est Evena Westwood, . 
 Le nom Catuna Kirby, 1871 a lui-même un homonyme junior : Catuna Mello-Leitão, 1940, un nom de genre d'araignées, désormais remplacé par Eminella Özdikmen, 2007.
 </t>
         </is>
@@ -543,11 +557,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre comporte cinq espèces décrites[2] :
-Catuna angustatum (C. &amp; R. Felder, [1867])
-Catuna crithea (Drury, [1773])
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ce genre comporte cinq espèces décrites :
+Catuna angustatum (C. &amp; R. Felder, )
+Catuna crithea (Drury, )
 Catuna niji Fox, 1965
 Catuna oberthueri Karsch, 1894
 Catuna sikorana Rogenhofer, 1889</t>
